--- a/biology/Origine et évolution du vivant/Teleostei_(classification_phylogénétique)/Teleostei_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Teleostei_(classification_phylogénétique)/Teleostei_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Teleostei_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Teleostei_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Teleostei (Téléostéens), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Teleostei_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Teleostei_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -1136,7 +1150,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Teleostei_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Teleostei_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1154,7 +1168,9 @@
           <t>Débat scientifique relatif à la phylogénie des Teleostei</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phylogénies moléculaires ont distingué quatre groupes au sein des Téléostéens : les Élopomorphes, les Ostéoglossomorphes, les Ostarioclupéomorphes ou Otocéphales et les Eutéléostéens, les deux derniers formant ensemble un clade monophylétique. La relation entre les deux premiers n'est pas l'objet d'un consensus. 
 Au sein des Eutéléostéens, le contenu des Protacanthoptérygiens varie selon les auteurs, et au sein des Néotéléostéens les contours traditionnels des Paracanthoptérygiens et des Acanthoptérygiens ont volé en éclats, tout comme les Perciformes vraisemblablement polyphylétiques.
@@ -1169,7 +1185,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Teleostei_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Teleostei_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1189,14 +1205,86 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Guillaume Lecointre, Cyril Gallut, Bruno Chanet et Agnès Dettaï : « Du rififi chez les poissons », in Pour la Science n° 390, 2010, pp. 57-63
-Guillermo Ortí et Chenhong Li : « Chapter 1: Phylogeny and Classification »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?), in Reproductive Biology and Phylogeny of Fishes (Agnathans and Bony Fishes). Phylogeny, Reproductive System, Viviparity, Spermatozoa, B.M.G. Jamieson éditeur, Science Publishers (Reproductive Biology and Phylogeny, vol. 8 A), Enfield (New Hampshire), 2009,  (ISBN 978-1578085804)
-Autres sources bibliographiques
-Sources internet
-Fish Index
-Liens internes
-Arbre phylogénétique
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Guillaume Lecointre, Cyril Gallut, Bruno Chanet et Agnès Dettaï : « Du rififi chez les poissons », in Pour la Science n° 390, 2010, pp. 57-63
+Guillermo Ortí et Chenhong Li : « Chapter 1: Phylogeny and Classification »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?), in Reproductive Biology and Phylogeny of Fishes (Agnathans and Bony Fishes). Phylogeny, Reproductive System, Viviparity, Spermatozoa, B.M.G. Jamieson éditeur, Science Publishers (Reproductive Biology and Phylogeny, vol. 8 A), Enfield (New Hampshire), 2009,  (ISBN 978-1578085804)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Teleostei_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Teleostei_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fish Index</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Teleostei_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Teleostei_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Opisthokonta (classification phylogénétique)
